--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -4,18 +4,19 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="teste1"/>
     <sheet r:id="rId2" sheetId="2" name="test_t"/>
+    <sheet r:id="rId3" sheetId="3" name="test_t_puro"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="18">
   <si>
     <t>Treatment</t>
   </si>
@@ -1263,7 +1264,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1402,4 +1403,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.052631155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.167967395</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.170398641</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.716977624</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.675018993</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.640379931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>